--- a/plugin-versions-environments.xlsx
+++ b/plugin-versions-environments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83425DB9-D26E-4801-857A-EE5BC7230F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD62D8A-6155-4E9F-ACC0-F786410122C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{6C1E6C1A-4027-4087-9BEF-6A97A11FE878}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C1E6C1A-4027-4087-9BEF-6A97A11FE878}"/>
   </bookViews>
   <sheets>
     <sheet name="7658 plugins versions" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="30">
   <si>
     <t>Plugin name</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>spend-ps-configuration-set-up</t>
+  </si>
+  <si>
+    <t>ssdl-utility</t>
+  </si>
+  <si>
+    <t>spend-ssdl</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1DD4A1-A43D-4EE8-8A73-7BCEB19A430E}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,139 +510,137 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>21</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -695,18 +699,38 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -715,7 +739,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1402,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDBE38C-0AB2-42AB-9482-A78B787142D4}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/plugin-versions-environments.xlsx
+++ b/plugin-versions-environments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD62D8A-6155-4E9F-ACC0-F786410122C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E1795-7644-4DE9-BF8A-D83B31AA2F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C1E6C1A-4027-4087-9BEF-6A97A11FE878}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="35">
   <si>
     <t>Plugin name</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>spend-ssdl</t>
+  </si>
+  <si>
+    <t>Consolidate</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Project Setup</t>
+  </si>
+  <si>
+    <t>Normalize</t>
   </si>
 </sst>
 </file>
@@ -489,243 +504,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1DD4A1-A43D-4EE8-8A73-7BCEB19A430E}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -736,225 +840,315 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA77403-9225-454D-B574-9F97A42413CE}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="C4">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="C13">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
+      <c r="C14">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="C16">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="C17">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="C18">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="C28">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
         <v>3</v>
       </c>
     </row>
@@ -965,225 +1159,314 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A0D29E-06DC-4591-8C88-98C08F9ED810}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="C4">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="C13">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
+      <c r="C14">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="C16">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="C17">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="C18">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="C28">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1195,225 +1478,314 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD42072-E83D-41F5-A3C3-A378F01D17EF}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="C4">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="C13">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
+      <c r="C14">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="C16">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="C17">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="C18">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="C28">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1424,225 +1796,314 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDBE38C-0AB2-42AB-9482-A78B787142D4}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="C4">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="C13">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
+      <c r="C14">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="C16">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="C17">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="C18">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="C28">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
         <v>3</v>
       </c>
     </row>

--- a/plugin-versions-environments.xlsx
+++ b/plugin-versions-environments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E1795-7644-4DE9-BF8A-D83B31AA2F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DBAE3F-3D0F-4ABF-A826-A7B3AB80ECFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C1E6C1A-4027-4087-9BEF-6A97A11FE878}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="60">
   <si>
     <t>Plugin name</t>
   </si>
@@ -144,13 +144,88 @@
   </si>
   <si>
     <t>Normalize</t>
+  </si>
+  <si>
+    <t>spend-execute-quality-checks-configuration</t>
+  </si>
+  <si>
+    <t>spend-normalization-historical-data</t>
+  </si>
+  <si>
+    <t>spend-normalization-through-ai</t>
+  </si>
+  <si>
+    <t>spend-normalization-update-missing-parent</t>
+  </si>
+  <si>
+    <t>spend-normalize-generate-file-error</t>
+  </si>
+  <si>
+    <t>spend-normalize-update-fixed-data-config</t>
+  </si>
+  <si>
+    <t>spend-normalize-update-fixed-data</t>
+  </si>
+  <si>
+    <t>spend-supplier-clustering</t>
+  </si>
+  <si>
+    <t>spend-vne-cleansing-query</t>
+  </si>
+  <si>
+    <t>spend-vne-generate-file</t>
+  </si>
+  <si>
+    <t>spend-vne-rules-popup</t>
+  </si>
+  <si>
+    <t>spend-vne-upload-attachment</t>
+  </si>
+  <si>
+    <t>spend-vne-configure-stage</t>
+  </si>
+  <si>
+    <t>spend-ps-classification-clustering</t>
+  </si>
+  <si>
+    <t>spend-ps-supplier-normalization-clustering</t>
+  </si>
+  <si>
+    <t>spend-ai-sample-selection</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>spend-classification-through-ai</t>
+  </si>
+  <si>
+    <t>spend-classify-clustering-classification-data</t>
+  </si>
+  <si>
+    <t>spend-classify-configure-stage</t>
+  </si>
+  <si>
+    <t>spend-classify-generate-file-error</t>
+  </si>
+  <si>
+    <t>spend-classify-generate-filefor-missing-classification</t>
+  </si>
+  <si>
+    <t>spend-classify-update-fixed-data-upload-attachment</t>
+  </si>
+  <si>
+    <t>spend-cleanse-query</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +241,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,14 +272,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1DD4A1-A43D-4EE8-8A73-7BCEB19A430E}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,14 +623,14 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>40</v>
+      <c r="C3" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -693,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -719,14 +810,14 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
-        <v>113</v>
+      <c r="C20" s="2">
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -822,14 +913,270 @@
         <v>3</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2">
+        <v>37</v>
+      </c>
+    </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/plugin-versions-environments.xlsx
+++ b/plugin-versions-environments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DBAE3F-3D0F-4ABF-A826-A7B3AB80ECFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E98201-6AE9-4B1D-8BC3-6E45E75DD4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C1E6C1A-4027-4087-9BEF-6A97A11FE878}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="72">
   <si>
     <t>Plugin name</t>
   </si>
@@ -194,9 +194,6 @@
     <t>spend-ai-sample-selection</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>Classification</t>
   </si>
   <si>
@@ -219,6 +216,45 @@
   </si>
   <si>
     <t>spend-cleanse-query</t>
+  </si>
+  <si>
+    <t>spend-add-new-report</t>
+  </si>
+  <si>
+    <t>spend-exclusion-add-report</t>
+  </si>
+  <si>
+    <t>spend-exclusion-summary-config</t>
+  </si>
+  <si>
+    <t>spend-field-wise-summary</t>
+  </si>
+  <si>
+    <t>spend-summary-config</t>
+  </si>
+  <si>
+    <t>spend-trendcheck-table</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>spend-model-generation</t>
+  </si>
+  <si>
+    <t>spend-gep-knowledgebase</t>
+  </si>
+  <si>
+    <t>spend-classify-through-rules-config</t>
+  </si>
+  <si>
+    <t>spend-classify-exec-quality-checks</t>
+  </si>
+  <si>
+    <t>spend-classification-historical-clusters</t>
+  </si>
+  <si>
+    <t>spend-ai-classification-through-project</t>
   </si>
 </sst>
 </file>
@@ -249,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +296,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -276,10 +318,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
@@ -595,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1DD4A1-A43D-4EE8-8A73-7BCEB19A430E}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,80 +671,80 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>41</v>
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
+      <c r="C6" s="5">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
+      <c r="A8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
+      <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -704,10 +752,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
         <v>19</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -715,10 +763,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -726,21 +774,21 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>27</v>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -748,10 +796,10 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -759,10 +807,10 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -770,76 +818,76 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>191</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>118</v>
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>185</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -854,189 +902,181 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24">
-        <v>14</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
-        <v>28</v>
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="2">
-        <v>37</v>
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="2">
-        <v>35</v>
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40">
-        <v>16</v>
+      <c r="A40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41">
+      <c r="A41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42">
-        <v>13</v>
-      </c>
-    </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43">
-        <v>7</v>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1044,10 +1084,10 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1055,10 +1095,10 @@
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1066,117 +1106,279 @@
         <v>34</v>
       </c>
       <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
         <v>46</v>
       </c>
-      <c r="C46">
+      <c r="C55">
         <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="2">
-        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C60" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C64" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="2">
         <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/plugin-versions-environments.xlsx
+++ b/plugin-versions-environments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E98201-6AE9-4B1D-8BC3-6E45E75DD4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917073DE-7652-45F3-A31F-B119BBDE9667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C1E6C1A-4027-4087-9BEF-6A97A11FE878}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="72">
   <si>
     <t>Plugin name</t>
   </si>
@@ -643,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1DD4A1-A43D-4EE8-8A73-7BCEB19A430E}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -993,90 +993,113 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
-        <v>28</v>
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>191</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="2">
-        <v>37</v>
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="2">
-        <v>35</v>
+      <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="1" t="s">
-        <v>29</v>
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1084,10 +1107,10 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1095,136 +1118,153 @@
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="2">
-        <v>76</v>
-      </c>
-    </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="1" t="s">
-        <v>29</v>
+      <c r="A59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1232,10 +1272,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1243,142 +1283,92 @@
         <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="2">
-        <v>17</v>
+      <c r="B63" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="2">
+      <c r="A64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="2">
-        <v>14</v>
-      </c>
-    </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" s="2">
-        <v>7</v>
+      <c r="A67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="2">
-        <v>25</v>
+      <c r="A68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>51</v>
+      <c r="A69" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>51</v>
+      <c r="A70" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
